--- a/data/outputs/management/30.xlsx
+++ b/data/outputs/management/30.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ12"/>
+  <dimension ref="A1:BR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +922,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4654552</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1327,6 +1338,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1544,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>6590117</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1733,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1938,6 +1956,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>11677401</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2139,6 +2162,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2348,6 +2372,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3944485</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2561,6 +2590,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>3704110</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2770,6 +2804,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>3078854</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2979,6 +3018,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>3098447</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
